--- a/fuentes/contenidos/grado10/guion05/EscaletaCN_10_05_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion05/EscaletaCN_10_05_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Documents\Aula Planeta Colombia\Repositorios\CienciasNaturales\fuentes\contenidos\grado10\guion05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado10\guion05\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -511,12 +511,6 @@
     <t>La relación entre el trabajo y la energía</t>
   </si>
   <si>
-    <t>Relación entre trabajo y energía potencial</t>
-  </si>
-  <si>
-    <t>Actividad sobre la relación entre el trabajo y la energía potencial</t>
-  </si>
-  <si>
     <t>Recurso M4A-01</t>
   </si>
   <si>
@@ -686,12 +680,18 @@
   </si>
   <si>
     <t>FQ_09_11</t>
+  </si>
+  <si>
+    <t>Relación entre trabajo y energía cinética</t>
+  </si>
+  <si>
+    <t>Actividad sobre la relación entre el trabajo y la energía cinética</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -955,30 +955,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -990,6 +966,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1028,6 +1010,24 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1336,128 +1336,128 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q28" sqref="Q28"/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.9296875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="13.9296875" style="18" customWidth="1"/>
+    <col min="1" max="1" width="9" style="18" customWidth="1"/>
+    <col min="2" max="2" width="14" style="18" customWidth="1"/>
     <col min="3" max="3" width="17" style="18" customWidth="1"/>
-    <col min="4" max="4" width="26.1328125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="39.796875" style="18" customWidth="1"/>
-    <col min="6" max="6" width="36.86328125" style="28" customWidth="1"/>
-    <col min="7" max="7" width="50.86328125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="4.06640625" style="29" customWidth="1"/>
-    <col min="9" max="9" width="4.46484375" style="28" customWidth="1"/>
-    <col min="10" max="10" width="40.53125" style="18" customWidth="1"/>
-    <col min="11" max="11" width="4.3984375" style="18" customWidth="1"/>
-    <col min="12" max="12" width="10.9296875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="36.85546875" style="28" customWidth="1"/>
+    <col min="7" max="7" width="50.85546875" style="18" customWidth="1"/>
+    <col min="8" max="8" width="4" style="29" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" style="28" customWidth="1"/>
+    <col min="10" max="10" width="40.5703125" style="18" customWidth="1"/>
+    <col min="11" max="11" width="4.42578125" style="18" customWidth="1"/>
+    <col min="12" max="12" width="11" style="18" customWidth="1"/>
     <col min="13" max="13" width="4" style="18" customWidth="1"/>
-    <col min="14" max="14" width="8.19921875" style="18" customWidth="1"/>
-    <col min="15" max="15" width="4.796875" style="28" customWidth="1"/>
-    <col min="16" max="16" width="4.1328125" style="28" customWidth="1"/>
-    <col min="17" max="17" width="6.33203125" style="28" customWidth="1"/>
-    <col min="18" max="18" width="4.33203125" style="18" customWidth="1"/>
-    <col min="19" max="19" width="28.59765625" style="18" customWidth="1"/>
-    <col min="20" max="20" width="41.6640625" style="18" customWidth="1"/>
-    <col min="21" max="21" width="12.53125" style="18" customWidth="1"/>
-    <col min="22" max="16384" width="11.3984375" style="18"/>
+    <col min="14" max="14" width="8.140625" style="18" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="28" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" style="28" customWidth="1"/>
+    <col min="17" max="17" width="6.28515625" style="28" customWidth="1"/>
+    <col min="18" max="18" width="4.28515625" style="18" customWidth="1"/>
+    <col min="19" max="19" width="28.5703125" style="18" customWidth="1"/>
+    <col min="20" max="20" width="41.7109375" style="18" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="18" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="G1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="64" t="s">
+      <c r="I1" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="76" t="s">
+      <c r="J1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="74" t="s">
+      <c r="K1" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="72" t="s">
+      <c r="L1" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="78" t="s">
+      <c r="M1" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="78"/>
-      <c r="O1" s="56" t="s">
+      <c r="N1" s="72"/>
+      <c r="O1" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="56" t="s">
+      <c r="P1" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="58" t="s">
+      <c r="Q1" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="62" t="s">
+      <c r="R1" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="58" t="s">
+      <c r="S1" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="60" t="s">
+      <c r="T1" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="58" t="s">
+      <c r="U1" s="75" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="71"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="73"/>
+    <row r="2" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="65"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="67"/>
       <c r="M2" s="5" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="59"/>
-    </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="76"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="76"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>17</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>5</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="N3" s="13"/>
       <c r="O3" s="14" t="s">
@@ -1512,13 +1512,13 @@
         <v>129</v>
       </c>
       <c r="T3" s="55" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="U3" s="55" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H5" s="3">
         <v>3</v>
@@ -1638,7 +1638,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>17</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:21" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="10" t="s">
-        <v>160</v>
+        <v>217</v>
       </c>
       <c r="H9" s="3">
         <v>7</v>
@@ -1840,7 +1840,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>161</v>
+        <v>218</v>
       </c>
       <c r="K9" s="21" t="s">
         <v>20</v>
@@ -1866,13 +1866,13 @@
         <v>145</v>
       </c>
       <c r="T9" s="26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="U9" s="24" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
@@ -1890,7 +1890,7 @@
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H10" s="3">
         <v>8</v>
@@ -1925,13 +1925,13 @@
         <v>145</v>
       </c>
       <c r="T10" s="26" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="U10" s="24" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
         <v>17</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:21" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
@@ -1999,12 +1999,12 @@
         <v>123</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="14"/>
       <c r="G12" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H12" s="3">
         <v>10</v>
@@ -2013,7 +2013,7 @@
         <v>19</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>19</v>
@@ -2037,13 +2037,13 @@
         <v>129</v>
       </c>
       <c r="T12" s="17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="U12" s="15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>17</v>
       </c>
@@ -2054,14 +2054,14 @@
         <v>123</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H13" s="3">
         <v>11</v>
@@ -2070,7 +2070,7 @@
         <v>19</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K13" s="21" t="s">
         <v>19</v>
@@ -2081,7 +2081,7 @@
       <c r="M13" s="23"/>
       <c r="N13" s="23"/>
       <c r="O13" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P13" s="19" t="s">
         <v>19</v>
@@ -2096,13 +2096,13 @@
         <v>129</v>
       </c>
       <c r="T13" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U13" s="24" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>17</v>
       </c>
@@ -2113,14 +2113,14 @@
         <v>123</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H14" s="3">
         <v>12</v>
@@ -2129,7 +2129,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K14" s="21" t="s">
         <v>19</v>
@@ -2153,13 +2153,13 @@
         <v>129</v>
       </c>
       <c r="T14" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="U14" s="24" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>17</v>
       </c>
@@ -2170,14 +2170,14 @@
         <v>123</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H15" s="3">
         <v>13</v>
@@ -2186,7 +2186,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K15" s="21" t="s">
         <v>19</v>
@@ -2216,7 +2216,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:21" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
@@ -2227,14 +2227,14 @@
         <v>123</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H16" s="3">
         <v>14</v>
@@ -2243,7 +2243,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K16" s="21" t="s">
         <v>20</v>
@@ -2269,13 +2269,13 @@
         <v>145</v>
       </c>
       <c r="T16" s="26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="U16" s="24" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>17</v>
       </c>
@@ -2286,14 +2286,14 @@
         <v>123</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E17" s="31" t="s">
         <v>140</v>
       </c>
       <c r="F17" s="47"/>
       <c r="G17" s="34" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H17" s="54">
         <v>15</v>
@@ -2302,7 +2302,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K17" s="49" t="s">
         <v>19</v>
@@ -2326,13 +2326,13 @@
         <v>129</v>
       </c>
       <c r="T17" s="52" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="U17" s="46" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:21" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
@@ -2343,14 +2343,14 @@
         <v>123</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H18" s="3">
         <v>16</v>
@@ -2359,7 +2359,7 @@
         <v>19</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K18" s="12" t="s">
         <v>20</v>
@@ -2379,19 +2379,19 @@
         <v>8</v>
       </c>
       <c r="R18" s="55" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="S18" s="55" t="s">
         <v>124</v>
       </c>
       <c r="T18" s="55" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="U18" s="55" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
@@ -2402,14 +2402,14 @@
         <v>123</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H19" s="3">
         <v>17</v>
@@ -2418,7 +2418,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K19" s="21" t="s">
         <v>19</v>
@@ -2442,13 +2442,13 @@
         <v>129</v>
       </c>
       <c r="T19" s="26" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="U19" s="24" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>17</v>
       </c>
@@ -2459,14 +2459,14 @@
         <v>123</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H20" s="3">
         <v>18</v>
@@ -2475,7 +2475,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K20" s="21" t="s">
         <v>19</v>
@@ -2499,13 +2499,13 @@
         <v>145</v>
       </c>
       <c r="T20" s="26" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="U20" s="24" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>17</v>
       </c>
@@ -2516,14 +2516,14 @@
         <v>123</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H21" s="3">
         <v>19</v>
@@ -2532,7 +2532,7 @@
         <v>19</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K21" s="21" t="s">
         <v>19</v>
@@ -2543,7 +2543,7 @@
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
       <c r="O21" s="19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P21" s="19" t="s">
         <v>19</v>
@@ -2558,13 +2558,13 @@
         <v>129</v>
       </c>
       <c r="T21" s="26" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="U21" s="24" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
         <v>17</v>
       </c>
@@ -2575,14 +2575,14 @@
         <v>123</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E22" s="31" t="s">
         <v>140</v>
       </c>
       <c r="F22" s="33"/>
       <c r="G22" s="34" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H22" s="54">
         <v>20</v>
@@ -2591,7 +2591,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K22" s="37" t="s">
         <v>19</v>
@@ -2615,13 +2615,13 @@
         <v>129</v>
       </c>
       <c r="T22" s="42" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="U22" s="40" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:21" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>17</v>
       </c>
@@ -2632,12 +2632,12 @@
         <v>123</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E23" s="44"/>
       <c r="F23" s="14"/>
       <c r="G23" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H23" s="3">
         <v>21</v>
@@ -2646,7 +2646,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K23" s="12" t="s">
         <v>20</v>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="M23" s="13"/>
       <c r="N23" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O23" s="14"/>
       <c r="P23" s="14" t="s">
@@ -2672,13 +2672,13 @@
         <v>124</v>
       </c>
       <c r="T23" s="55" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="U23" s="55" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
         <v>17</v>
       </c>
@@ -2689,12 +2689,12 @@
         <v>123</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E24" s="45"/>
       <c r="F24" s="33"/>
       <c r="G24" s="34" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H24" s="54">
         <v>22</v>
@@ -2703,7 +2703,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="36" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K24" s="37" t="s">
         <v>20</v>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="M24" s="39"/>
       <c r="N24" s="39" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O24" s="33"/>
       <c r="P24" s="33" t="s">
@@ -2729,13 +2729,13 @@
         <v>145</v>
       </c>
       <c r="T24" s="42" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="U24" s="40" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:21" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>17</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>123</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E25" s="44"/>
       <c r="F25" s="14"/>
@@ -2760,7 +2760,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K25" s="12" t="s">
         <v>20</v>
@@ -2780,7 +2780,7 @@
       <c r="T25" s="17"/>
       <c r="U25" s="15"/>
     </row>
-    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>17</v>
       </c>
@@ -2791,12 +2791,12 @@
         <v>123</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="19"/>
       <c r="G26" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H26" s="3">
         <v>24</v>
@@ -2805,7 +2805,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K26" s="21" t="s">
         <v>20</v>
@@ -2831,13 +2831,13 @@
         <v>145</v>
       </c>
       <c r="T26" s="26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="U26" s="24" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>17</v>
       </c>
@@ -2848,12 +2848,12 @@
         <v>123</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E27" s="27"/>
       <c r="F27" s="19"/>
       <c r="G27" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H27" s="3">
         <v>25</v>
@@ -2862,7 +2862,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K27" s="21" t="s">
         <v>20</v>
@@ -2888,193 +2888,193 @@
         <v>145</v>
       </c>
       <c r="T27" s="26" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="U27" s="24" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
         <v>115</v>
       </c>
@@ -3084,6 +3084,12 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -3098,12 +3104,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3157,27 +3157,27 @@
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.86328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="34" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.86328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.73046875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.3984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" style="1" customWidth="1"/>
     <col min="12" max="12" width="17" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.3984375" style="1"/>
-    <col min="14" max="14" width="24.265625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="69.86328125" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.3984375" style="1"/>
+    <col min="13" max="13" width="11.42578125" style="1"/>
+    <col min="14" max="14" width="24.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="69.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -3218,7 +3218,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -3237,7 +3237,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -3256,7 +3256,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -3272,7 +3272,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -3289,7 +3289,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -3306,7 +3306,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -3321,7 +3321,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -3336,7 +3336,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -3351,7 +3351,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -3366,7 +3366,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -3381,7 +3381,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -3396,7 +3396,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -3411,7 +3411,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -3426,7 +3426,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -3441,7 +3441,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="1" t="s">
@@ -3455,7 +3455,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="1" t="s">
@@ -3469,7 +3469,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="1" t="s">
@@ -3483,7 +3483,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="1" t="s">
@@ -3497,7 +3497,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -3512,7 +3512,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -3527,7 +3527,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -3542,7 +3542,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -3557,7 +3557,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -3572,7 +3572,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -3587,7 +3587,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -3602,7 +3602,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -3617,7 +3617,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -3632,7 +3632,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -3647,7 +3647,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -3662,7 +3662,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -3677,7 +3677,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -3692,7 +3692,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -3707,7 +3707,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -3722,7 +3722,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -3737,7 +3737,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -3752,7 +3752,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -3767,7 +3767,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -3782,7 +3782,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -3797,7 +3797,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -3812,7 +3812,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -3827,7 +3827,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -3842,7 +3842,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -3857,7 +3857,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -3872,7 +3872,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -3887,7 +3887,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -3902,7 +3902,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -3917,7 +3917,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -3929,7 +3929,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -3941,7 +3941,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -3954,7 +3954,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -3967,7 +3967,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -3980,7 +3980,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -3993,7 +3993,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -4006,7 +4006,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -4019,7 +4019,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -4032,7 +4032,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -4045,7 +4045,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -4058,7 +4058,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -4071,7 +4071,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -4084,7 +4084,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -4097,7 +4097,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -4110,7 +4110,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -4123,7 +4123,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -4136,7 +4136,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -4149,7 +4149,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -4162,7 +4162,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -4175,7 +4175,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -4188,7 +4188,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -4201,7 +4201,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -4215,7 +4215,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -4229,7 +4229,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4243,7 +4243,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4257,7 +4257,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4271,7 +4271,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -4285,7 +4285,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -4299,7 +4299,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -4313,7 +4313,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -4327,7 +4327,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4341,7 +4341,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4355,7 +4355,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -4369,7 +4369,7 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -4383,7 +4383,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -4397,7 +4397,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -4411,7 +4411,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -4425,7 +4425,7 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -4439,7 +4439,7 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -4453,7 +4453,7 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -4467,7 +4467,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -4481,7 +4481,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -4495,7 +4495,7 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -4509,7 +4509,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -4523,7 +4523,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -4537,7 +4537,7 @@
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -4551,7 +4551,7 @@
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
     </row>
-    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -4565,7 +4565,7 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -4579,7 +4579,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
     </row>
-    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -4593,7 +4593,7 @@
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -4607,7 +4607,7 @@
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -4621,7 +4621,7 @@
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
     </row>
-    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -4635,7 +4635,7 @@
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
     </row>
-    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -4649,7 +4649,7 @@
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
     </row>
-    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -4663,7 +4663,7 @@
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
     </row>
-    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -4677,7 +4677,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -4691,7 +4691,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -4705,7 +4705,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -4719,7 +4719,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -4733,7 +4733,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -4747,7 +4747,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -4761,7 +4761,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -4775,7 +4775,7 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
     </row>
-    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -4789,7 +4789,7 @@
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
     </row>
-    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -4803,7 +4803,7 @@
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
     </row>
-    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -4817,7 +4817,7 @@
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
     </row>
-    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -4831,7 +4831,7 @@
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
     </row>
-    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -4845,7 +4845,7 @@
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
     </row>
-    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -4859,7 +4859,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
     </row>
-    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -4873,7 +4873,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -4887,7 +4887,7 @@
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
     </row>
-    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -4901,7 +4901,7 @@
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
     </row>
-    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -4915,7 +4915,7 @@
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
     </row>
-    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -4929,7 +4929,7 @@
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
     </row>
-    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -4943,7 +4943,7 @@
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
     </row>
-    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -4957,7 +4957,7 @@
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
     </row>
-    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -4971,7 +4971,7 @@
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
     </row>
-    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -4985,7 +4985,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
     </row>
-    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -4999,7 +4999,7 @@
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
     </row>
-    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -5013,7 +5013,7 @@
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
     </row>
-    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -5027,7 +5027,7 @@
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
     </row>
-    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -5041,7 +5041,7 @@
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
     </row>
-    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -5055,7 +5055,7 @@
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
     </row>
-    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -5069,7 +5069,7 @@
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
     </row>
-    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
